--- a/Plotly-Links-main/Surveys.xlsx
+++ b/Plotly-Links-main/Surveys.xlsx
@@ -16,7 +16,7 @@
     <t>ar1</t>
   </si>
   <si>
-    <t>1st Arecibo Survey</t>
+    <t>1st Arecibo Pulsar Survey</t>
   </si>
   <si>
     <t>ht74,ht75a,ht75b</t>
@@ -34,7 +34,7 @@
     <t>ar2</t>
   </si>
   <si>
-    <t>2nd Arecibo Survey</t>
+    <t>2nd Arecibo Pulsar Survey</t>
   </si>
   <si>
     <t>bkh+82,srs+86,sstd86</t>
@@ -52,7 +52,7 @@
     <t>ar3</t>
   </si>
   <si>
-    <t>3rd Arecibo Survey</t>
+    <t>3rd Arecibo Pulsar Survey</t>
   </si>
   <si>
     <t>fst88,nft93,nft95</t>
@@ -70,7 +70,7 @@
     <t>ar4</t>
   </si>
   <si>
-    <t>4th Arecibo Survey</t>
+    <t>4th Arecibo Pulsar Survey</t>
   </si>
   <si>
     <t>wol90a,wol91a,cnt93,fwc93,ntf93,tdk+93,cam95a,fcwa95,wol95,cnt96,cnst96,rtj+96,zcwl96,snt97,mca00,cha03,clm+04,lwf+04,clm+05,lxf+05,lmcs07,bfrs18</t>
@@ -244,7 +244,7 @@
     <t>FermiAssoc</t>
   </si>
   <si>
-    <t>searches of unidentified Fermi gamma-ray sources</t>
+    <t>Searches of Unidentified Fermi gamma-ray sources</t>
   </si>
   <si>
     <t>rrc+11,kjr+11,hrm+11,ckr+12,gfc+12,kcj+12,bgc+13,pc15,cck+16,san16,bph+17a,frm+18,wlz+18,plca18,nie+20,brj+21,trr+21,fermi21</t>
@@ -1258,7 +1258,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
